--- a/イベントリンク(追加機能のお願い).xlsx
+++ b/イベントリンク(追加機能のお願い).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>イベントデータ</t>
     <phoneticPr fontId="1"/>
@@ -110,11 +110,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コードA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>追加機能検討のお願い）コードAとTAG1が同じ後値のデータを紐づけ</t>
+    <t>Data１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qqqqq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rrrrrrr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品ロット</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加機能検討のお願い）Data1の表示にイベントデータの製品ロットと材料データの製品ロットが同じ値の材料データ(SQL値)のWeb表示</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
     </rPh>
@@ -127,17 +146,32 @@
     <rPh sb="8" eb="9">
       <t>ネガ</t>
     </rPh>
-    <rPh sb="21" eb="22">
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
       <t>オナ</t>
     </rPh>
-    <rPh sb="23" eb="24">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="24" eb="25">
+    <rPh sb="48" eb="49">
       <t>アタイ</t>
     </rPh>
-    <rPh sb="30" eb="31">
-      <t>ヒモ</t>
+    <rPh sb="50" eb="52">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +239,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -235,7 +275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +307,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -350,9 +393,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -368,14 +411,14 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2905125" y="3038475"/>
-          <a:ext cx="6372226" cy="323850"/>
+          <a:ext cx="6362700" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -700,14 +743,16 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
@@ -898,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>2</v>
@@ -909,7 +954,9 @@
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="3" t="s">
         <v>9</v>
@@ -918,9 +965,11 @@
         <v>10</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
@@ -939,7 +988,9 @@
       <c r="F12" s="3">
         <v>789</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="7">
         <v>44069.479166666664</v>
@@ -950,7 +1001,9 @@
       <c r="K12" s="9">
         <v>123</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
@@ -969,7 +1022,9 @@
       <c r="F13" s="3">
         <v>444</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="6">
         <v>44069.520833333336</v>
@@ -980,7 +1035,9 @@
       <c r="K13" s="9">
         <v>222</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B14" s="6">
@@ -998,6 +1055,9 @@
       <c r="F14" s="3">
         <v>777</v>
       </c>
+      <c r="G14" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I14" s="8">
         <v>44069.5625</v>
       </c>
@@ -1006,6 +1066,9 @@
       </c>
       <c r="K14" s="9">
         <v>555</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
@@ -1024,10 +1087,11 @@
       <c r="F15" s="3">
         <v>1000</v>
       </c>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="G16" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
